--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-29.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\SIGAB\Sprint#2\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACY\Documents\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76BFB3-F4FA-4E0C-B1DA-574F14EBE0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750995-7BEB-4382-8C44-7AF10CEA07DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
     <sheet name="RF x" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
-  </authors>
-  <commentList>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Observación</t>
   </si>
@@ -126,22 +108,67 @@
 Documentación e Información.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Los campos que son obligatorios deben de estar señalados debidamente con un asterísticos. </t>
-  </si>
-  <si>
-    <t>Agregar carga académica del personal</t>
-  </si>
-  <si>
+    <t>Visualizar información detallada de la actividad de promoción de la carrera.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe poder visualizar la siguiente información:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo de actividad.
+Tema de la actividad.
+Estado de la actividad (para ejecutar, en progreso, ejecutada).
+Institución u organización patrocinadora (por ejemplo: SINAES, UNA, otros).
+Responsable de la actividad.
+Fecha de actividad.
+Lugar donde se realizó la actividad.
+Recursos utilizados
+Descripción de la actividad.
+Evaluación de la actividad (buenas prácticas, principales resultados, limitaciones).</t>
+    </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tipo de actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Promoción de la carrera (Externa)</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>El formulario tiene que contener obligatoriamente la siguiente información:</t>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Tema de la actividad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Feria informativa Puertas Abiertas para estudiantes de undécimo año de todo el país</t>
     </r>
     <r>
       <rPr>
@@ -152,25 +179,139 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Identificación
-Año
-Nombre del curso
-NRC</t>
-    </r>
-  </si>
-  <si>
-    <t>El registro de los datos es éxitoso.</t>
-  </si>
-  <si>
-    <t>Año: 2020
-Nombre del curso : Introducción a la Bibliotecología y Gestión de la Información
-NRC: 5000000</t>
-  </si>
-  <si>
-    <t>Se enlista correctamente las cargas académicas.</t>
-  </si>
-  <si>
-    <t>Se editan y actualizan correctamente las cargas académicas.</t>
+Estado de la actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ejecutada</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Responsable de la actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Juan Pablo Corella</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Fecha de actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>15/11/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Lugar donde se realizó la actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Universidad Nacional</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Recursos utilizados: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desplegables con el plan de estudios; banner de la carrera; vídeo sobre la carrera; proyector multimedia; computadora
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descripción de la actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Informar al estudiantado de undécimo año de la oferta académica de la EBDI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Evaluación de la actividad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Según los estudiantes la actividad estuvo muy bien.</t>
+    </r>
+  </si>
+  <si>
+    <t>Realizar un ajuste en el listado de tipos de actividades de promoción</t>
   </si>
 </sst>
 </file>
@@ -233,21 +374,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,9 +429,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -357,9 +505,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="RITA CORTES  CHAVARRIA" id="{B52250F9-65D8-4FFF-930F-65C201CB807F}" userId="S::rita.cortes.chavarria@una.ac.cr::c0e6c229-df6a-45a8-b6e1-f2937c491d41" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,31 +803,23 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A17" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
-    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
@@ -691,7 +829,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -701,7 +839,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -715,33 +853,33 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -753,26 +891,26 @@
       <c r="E6" s="19"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10">
-        <v>44119</v>
+        <v>44278</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -780,7 +918,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -797,86 +935,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" ht="235.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -889,7 +1001,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -901,13 +1012,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -917,7 +1028,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
@@ -927,7 +1038,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1052,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -953,7 +1064,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -967,7 +1078,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -977,7 +1088,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -987,14 +1098,14 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1113,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1138,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1146,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1154,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1051,23 +1162,23 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1075,14 +1186,14 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>

--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-29.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-29.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACY\Documents\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750995-7BEB-4382-8C44-7AF10CEA07DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A0CAD7-5B0D-45EA-A093-443474AA57ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="RF x" sheetId="1" r:id="rId1"/>
-    <sheet name="RF y" sheetId="3" r:id="rId2"/>
+    <sheet name="RF 29" sheetId="1" r:id="rId1"/>
+    <sheet name="Firmas" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Observación</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Casos de PB suministrados por el Product Owner (Agregar)</t>
   </si>
   <si>
-    <t>Criterios de aceptación definidos en el RF (AZURE)</t>
-  </si>
-  <si>
     <t>Cátedra Ingeniería de Sistemas</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>ID Proyecto</t>
   </si>
   <si>
-    <t>Cumple</t>
-  </si>
-  <si>
     <t>No cumple</t>
   </si>
   <si>
@@ -73,31 +67,7 @@
     <t>Log de pruebas individuales (comprobación de criterios de aceptación)</t>
   </si>
   <si>
-    <t>Que el correo de notificación tenga el formato "Se aprobó …"</t>
-  </si>
-  <si>
-    <t>Que …</t>
-  </si>
-  <si>
-    <t>El crédito debe quedar con estado….</t>
-  </si>
-  <si>
-    <t>Notificación del credito No. 25  a Maria Aguilar</t>
-  </si>
-  <si>
-    <t>Notificación del credito No. 88  a Carlos Vargas</t>
-  </si>
-  <si>
     <t>Sí cumple</t>
-  </si>
-  <si>
-    <t>Sistema XYZ</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>Jenny Ulate Montero</t>
@@ -431,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,12 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,12 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,12 +468,74 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8159510-DE6B-44E6-91C6-16C9F2964CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15182850" cy="26022300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -807,21 +833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -829,9 +855,9 @@
       <c r="E1" s="18"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -839,23 +865,23 @@
       <c r="E2" s="18"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
@@ -865,35 +891,35 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="12">
         <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10">
         <v>44278</v>
@@ -903,30 +929,30 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
@@ -935,58 +961,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="235.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>29</v>
+    <row r="13" spans="1:6" ht="231" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
@@ -1005,207 +1031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C950B-71A6-49C5-9964-9133AAAEFEBA}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D5EF3A-E04C-4AFD-A768-BC161DCC913B}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>99</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>